--- a/tests/indicators/a-d/Alma/Alma.Calc.xlsx
+++ b/tests/indicators/a-d/Alma/Alma.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C903A-6EAC-44C3-9CCD-C5E19201A562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9597294B-E4D7-4105-B917-3BE322E2FC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24885" yWindow="0" windowWidth="23040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALMA" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>volume</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>alma</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>lower</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -849,6 +849,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -887,10 +891,6 @@
       </font>
       <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1325,772 +1325,772 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>249</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>253</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>259</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>267</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>268</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>269</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>272</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>274</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>275</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>277</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>278</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>279</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>281</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>282</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>283</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>284</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>285</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>286</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>287</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>288</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>289</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>291</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>292</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>293</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>297</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>299</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>302</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>303</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>305</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>306</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>307</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>308</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>310</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>313</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>314</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>315</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>316</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>317</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>319</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>321</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>322</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>323</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>324</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>326</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>327</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>328</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>331</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>332</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>333</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>334</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>335</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>336</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>337</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>339</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>340</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>341</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>343</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>344</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>345</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>346</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>347</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>348</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>349</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>351</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>352</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>355</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>357</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>358</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>361</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>362</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>363</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>366</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>368</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>369</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>370</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>371</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>373</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>375</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>376</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>377</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>378</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>379</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>381</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>382</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>383</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>384</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>385</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>387</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>388</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>389</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>390</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>391</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>392</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>393</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>396</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>397</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>398</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>399</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>401</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>402</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>403</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>404</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>405</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>406</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>407</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>408</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>409</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>410</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>411</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>412</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>413</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>414</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>415</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>416</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>417</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>418</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>419</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>420</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>422</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>423</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>424</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="179">
                   <c:v>425</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="180">
                   <c:v>426</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
                   <c:v>427</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="182">
                   <c:v>428</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="183">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="184">
                   <c:v>430</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="185">
                   <c:v>431</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="186">
                   <c:v>432</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="187">
                   <c:v>433</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="188">
                   <c:v>434</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="189">
                   <c:v>435</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
                   <c:v>436</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="191">
                   <c:v>437</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="192">
                   <c:v>438</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="193">
                   <c:v>439</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
                   <c:v>440</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="195">
                   <c:v>441</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="196">
                   <c:v>442</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
                   <c:v>443</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="198">
                   <c:v>444</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="199">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="200">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>447</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="202">
                   <c:v>448</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="203">
                   <c:v>449</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="204">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="205">
                   <c:v>451</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="206">
                   <c:v>452</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="207">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="208">
                   <c:v>454</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="209">
                   <c:v>455</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="210">
                   <c:v>456</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="211">
                   <c:v>457</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="212">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="214">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="215">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="216">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="221">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="222">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>471</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="227">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="228">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="229">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="234">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="235">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="236">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="237">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="238">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="239">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="240">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="241">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="242">
                   <c:v>488</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="243">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="245">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="246">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="247">
                   <c:v>493</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="248">
                   <c:v>494</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="249">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="250">
                   <c:v>496</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="251">
                   <c:v>497</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="252">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="253">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="254">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="255">
                   <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,772 +2901,772 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>249</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>253</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>259</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>267</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>268</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>269</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>272</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>274</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>275</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>277</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>278</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>279</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>281</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>282</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>283</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>284</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>285</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>286</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>287</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>288</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>289</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>291</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>292</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>293</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>297</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>299</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>302</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>303</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>305</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>306</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>307</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>308</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>310</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>313</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>314</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>315</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>316</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>317</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>319</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>321</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>322</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>323</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>324</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>326</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>327</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>328</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>331</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>332</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>333</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>334</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>335</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>336</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>337</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>339</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>340</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>341</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>343</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>344</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>345</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>346</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>347</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>348</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>349</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>351</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>352</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>355</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>357</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>358</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>361</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>362</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>363</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>366</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>368</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>369</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>370</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>371</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>373</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>375</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>376</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>377</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>378</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>379</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>381</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>382</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>383</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>384</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>385</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>387</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>388</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>389</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>390</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>391</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>392</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>393</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>396</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>397</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>398</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>399</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>401</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>402</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>403</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>404</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>405</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>406</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>407</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>408</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>409</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>410</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>411</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>412</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>413</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>414</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>415</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>416</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>417</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>418</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>419</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>420</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>422</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>423</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>424</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="179">
                   <c:v>425</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="180">
                   <c:v>426</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
                   <c:v>427</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="182">
                   <c:v>428</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="183">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="184">
                   <c:v>430</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="185">
                   <c:v>431</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="186">
                   <c:v>432</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="187">
                   <c:v>433</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="188">
                   <c:v>434</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="189">
                   <c:v>435</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
                   <c:v>436</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="191">
                   <c:v>437</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="192">
                   <c:v>438</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="193">
                   <c:v>439</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
                   <c:v>440</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="195">
                   <c:v>441</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="196">
                   <c:v>442</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
                   <c:v>443</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="198">
                   <c:v>444</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="199">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="200">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>447</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="202">
                   <c:v>448</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="203">
                   <c:v>449</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="204">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="205">
                   <c:v>451</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="206">
                   <c:v>452</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="207">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="208">
                   <c:v>454</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="209">
                   <c:v>455</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="210">
                   <c:v>456</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="211">
                   <c:v>457</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="212">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="214">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="215">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="216">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="221">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="222">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>471</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="227">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="228">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="229">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="234">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="235">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="236">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="237">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="238">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="239">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="240">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="241">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="242">
                   <c:v>488</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="243">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="245">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="246">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="247">
                   <c:v>493</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="248">
                   <c:v>494</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="249">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="250">
                   <c:v>496</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="251">
                   <c:v>497</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="252">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="253">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="254">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="255">
                   <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,7 +5233,7 @@
     <sortCondition ref="B5"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="21" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="21" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="19" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="18" dataCellStyle="Currency"/>
@@ -5261,10 +5261,10 @@
     <tableColumn id="1" xr3:uid="{3C38F059-B807-4394-B27A-16EB5421CDD7}" name="alma" dataDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(testdata[[#This Row],[P1]:[P10]])/norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D5CEF3D9-740B-47DC-8CEC-FCEB579B89CB}" name="upper" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="19" xr3:uid="{D5CEF3D9-740B-47DC-8CEC-FCEB579B89CB}" name="upper" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>testdata[[#This Row],[alma]]+0.025*testdata[[#This Row],[alma]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{65E705D0-2187-4F12-9952-49C333823F09}" name="lower" dataDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="20" xr3:uid="{65E705D0-2187-4F12-9952-49C333823F09}" name="lower" dataDxfId="2" dataCellStyle="Currency">
       <calculatedColumnFormula>testdata[[#This Row],[alma]]-0.025*testdata[[#This Row],[alma]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5275,8 +5275,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38680181-AC33-45D1-879C-4DA7A8F4CFD7}" name="Table2" displayName="Table2" ref="Z4:AA506" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{998D1B35-FA5E-4466-B98C-D585208B300E}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{26B66C2C-C20B-4DE7-9366-4CF57B8DD8A6}" name="ALMA" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{998D1B35-FA5E-4466-B98C-D585208B300E}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{26B66C2C-C20B-4DE7-9366-4CF57B8DD8A6}" name="ALMA" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5581,13 +5581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="5" width="10.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
@@ -5643,24 +5643,24 @@
         <v>0</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="V1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W1" s="14">
         <v>10</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" ref="H2:Q2" si="1">EXP(-POWER(H$1-offsetAdj,2)/(2*sigmaAdj*sigmaAdj))</f>
@@ -5709,7 +5709,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="V2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W2" s="13">
         <v>0.85</v>
@@ -5765,7 +5765,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="V3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W3" s="13">
         <v>6</v>
@@ -5775,13 +5775,13 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="16"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -5802,54 +5802,54 @@
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="Z4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
         <v>42738</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>42739</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>42740</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
         <v>42741</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>42744</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
         <v>42745</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
         <v>42746</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
         <v>42747</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
         <v>42748</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
         <v>42752</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
         <v>42753</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
         <v>42754</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
         <v>42755</v>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>42758</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>42759</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
         <v>42760</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
         <v>42761</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
         <v>42762</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <v>42765</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>42766</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
         <v>42767</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
         <v>42768</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
         <v>42769</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3">
         <v>42772</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3">
         <v>42773</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3">
         <v>42774</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3">
         <v>42775</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3">
         <v>42776</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
         <v>42779</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3">
         <v>42780</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
         <v>42781</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3">
         <v>42782</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3">
         <v>42783</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3">
         <v>42787</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3">
         <v>42788</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3">
         <v>42789</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3">
         <v>42790</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3">
         <v>42793</v>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3">
         <v>42794</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3">
         <v>42795</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3">
         <v>42796</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3">
         <v>42797</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3">
         <v>42800</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3">
         <v>42801</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3">
         <v>42802</v>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3">
         <v>42803</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3">
         <v>42804</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="3">
         <v>42807</v>
@@ -9278,7 +9278,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="3">
         <v>42808</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="3">
         <v>42809</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="3">
         <v>42810</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3">
         <v>42811</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3">
         <v>42814</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3">
         <v>42815</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="3">
         <v>42816</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3">
         <v>42817</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3">
         <v>42818</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="3">
         <v>42821</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3">
         <v>42822</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="3">
         <v>42823</v>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3">
         <v>42824</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="3">
         <v>42825</v>
@@ -10412,7 +10412,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3">
         <v>42828</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3">
         <v>42829</v>
@@ -10574,7 +10574,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="3">
         <v>42830</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="3">
         <v>42831</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="3">
         <v>42832</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="3">
         <v>42835</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="3">
         <v>42836</v>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="3">
         <v>42837</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3">
         <v>42838</v>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="3">
         <v>42842</v>
@@ -11222,7 +11222,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="3">
         <v>42843</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78" s="3">
         <v>42844</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="3">
         <v>42845</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="3">
         <v>42846</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="3">
         <v>42849</v>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" s="3">
         <v>42850</v>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" s="3">
         <v>42851</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="3">
         <v>42852</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="3">
         <v>42853</v>
@@ -11951,7 +11951,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="3">
         <v>42856</v>
@@ -12032,7 +12032,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="3">
         <v>42857</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="3">
         <v>42858</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="3">
         <v>42859</v>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3">
         <v>42860</v>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="3">
         <v>42863</v>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" s="3">
         <v>42864</v>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3">
         <v>42865</v>
@@ -12599,7 +12599,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="3">
         <v>42866</v>
@@ -12680,7 +12680,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="3">
         <v>42867</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="3">
         <v>42870</v>
@@ -12842,7 +12842,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="3">
         <v>42871</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" s="3">
         <v>42872</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" s="3">
         <v>42873</v>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="3">
         <v>42874</v>
@@ -13166,7 +13166,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" s="3">
         <v>42877</v>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" s="3">
         <v>42878</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="3">
         <v>42879</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="3">
         <v>42880</v>
@@ -13490,7 +13490,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="3">
         <v>42881</v>
@@ -13571,7 +13571,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="3">
         <v>42885</v>
@@ -13652,7 +13652,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3">
         <v>42886</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="3">
         <v>42887</v>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" s="3">
         <v>42888</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" s="3">
         <v>42891</v>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="3">
         <v>42892</v>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" s="3">
         <v>42893</v>
@@ -14138,7 +14138,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="3">
         <v>42894</v>
@@ -14219,7 +14219,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114" s="3">
         <v>42895</v>
@@ -14300,7 +14300,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115" s="3">
         <v>42898</v>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" s="3">
         <v>42899</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" s="3">
         <v>42900</v>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="3">
         <v>42901</v>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" s="3">
         <v>42902</v>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="3">
         <v>42905</v>
@@ -14786,7 +14786,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="3">
         <v>42906</v>
@@ -14867,7 +14867,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" s="3">
         <v>42907</v>
@@ -14948,7 +14948,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B123" s="3">
         <v>42908</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B124" s="3">
         <v>42909</v>
@@ -15110,7 +15110,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125" s="3">
         <v>42912</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B126" s="3">
         <v>42913</v>
@@ -15272,7 +15272,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127" s="3">
         <v>42914</v>
@@ -15353,7 +15353,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B128" s="3">
         <v>42915</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B129" s="3">
         <v>42916</v>
@@ -15515,7 +15515,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B130" s="3">
         <v>42919</v>
@@ -15596,7 +15596,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B131" s="3">
         <v>42921</v>
@@ -15677,7 +15677,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B132" s="3">
         <v>42922</v>
@@ -15758,7 +15758,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B133" s="3">
         <v>42923</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B134" s="3">
         <v>42926</v>
@@ -15920,7 +15920,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B135" s="3">
         <v>42927</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B136" s="3">
         <v>42928</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="3">
         <v>42929</v>
@@ -16163,7 +16163,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B138" s="3">
         <v>42930</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B139" s="3">
         <v>42933</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B140" s="3">
         <v>42934</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B141" s="3">
         <v>42935</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" s="3">
         <v>42936</v>
@@ -16568,7 +16568,7 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B143" s="3">
         <v>42937</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3">
         <v>42940</v>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B145" s="3">
         <v>42941</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B146" s="3">
         <v>42942</v>
@@ -16892,7 +16892,7 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B147" s="3">
         <v>42943</v>
@@ -16973,7 +16973,7 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B148" s="3">
         <v>42944</v>
@@ -17054,7 +17054,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B149" s="3">
         <v>42947</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150" s="3">
         <v>42948</v>
@@ -17216,7 +17216,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B151" s="3">
         <v>42949</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B152" s="3">
         <v>42950</v>
@@ -17378,7 +17378,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B153" s="3">
         <v>42951</v>
@@ -17459,7 +17459,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B154" s="3">
         <v>42954</v>
@@ -17540,7 +17540,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B155" s="3">
         <v>42955</v>
@@ -17621,7 +17621,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B156" s="3">
         <v>42956</v>
@@ -17702,7 +17702,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B157" s="3">
         <v>42957</v>
@@ -17783,7 +17783,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B158" s="3">
         <v>42958</v>
@@ -17864,7 +17864,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B159" s="3">
         <v>42961</v>
@@ -17945,7 +17945,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B160" s="3">
         <v>42962</v>
@@ -18026,7 +18026,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B161" s="3">
         <v>42963</v>
@@ -18107,7 +18107,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B162" s="3">
         <v>42964</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B163" s="3">
         <v>42965</v>
@@ -18269,7 +18269,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B164" s="3">
         <v>42968</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B165" s="3">
         <v>42969</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B166" s="3">
         <v>42970</v>
@@ -18512,7 +18512,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167" s="3">
         <v>42971</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B168" s="3">
         <v>42972</v>
@@ -18674,7 +18674,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B169" s="3">
         <v>42975</v>
@@ -18755,7 +18755,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B170" s="3">
         <v>42976</v>
@@ -18836,7 +18836,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B171" s="3">
         <v>42977</v>
@@ -18917,7 +18917,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172" s="3">
         <v>42978</v>
@@ -18998,7 +18998,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B173" s="3">
         <v>42979</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B174" s="3">
         <v>42983</v>
@@ -19160,7 +19160,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B175" s="3">
         <v>42984</v>
@@ -19241,7 +19241,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B176" s="3">
         <v>42985</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B177" s="3">
         <v>42986</v>
@@ -19403,7 +19403,7 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B178" s="3">
         <v>42989</v>
@@ -19484,7 +19484,7 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B179" s="3">
         <v>42990</v>
@@ -19565,7 +19565,7 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B180" s="3">
         <v>42991</v>
@@ -19646,7 +19646,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B181" s="3">
         <v>42992</v>
@@ -19727,7 +19727,7 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B182" s="3">
         <v>42993</v>
@@ -19808,7 +19808,7 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B183" s="3">
         <v>42996</v>
@@ -19889,7 +19889,7 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B184" s="3">
         <v>42997</v>
@@ -19970,7 +19970,7 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B185" s="3">
         <v>42998</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B186" s="3">
         <v>42999</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B187" s="3">
         <v>43000</v>
@@ -20213,7 +20213,7 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B188" s="3">
         <v>43003</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B189" s="3">
         <v>43004</v>
@@ -20375,7 +20375,7 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B190" s="3">
         <v>43005</v>
@@ -20456,7 +20456,7 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B191" s="3">
         <v>43006</v>
@@ -20537,7 +20537,7 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B192" s="3">
         <v>43007</v>
@@ -20618,7 +20618,7 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B193" s="3">
         <v>43010</v>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B194" s="3">
         <v>43011</v>
@@ -20780,7 +20780,7 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B195" s="3">
         <v>43012</v>
@@ -20861,7 +20861,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B196" s="3">
         <v>43013</v>
@@ -20942,7 +20942,7 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B197" s="3">
         <v>43014</v>
@@ -21023,7 +21023,7 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B198" s="3">
         <v>43017</v>
@@ -21104,7 +21104,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B199" s="3">
         <v>43018</v>
@@ -21185,7 +21185,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B200" s="3">
         <v>43019</v>
@@ -21266,7 +21266,7 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B201" s="3">
         <v>43020</v>
@@ -21347,7 +21347,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B202" s="3">
         <v>43021</v>
@@ -21428,7 +21428,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B203" s="3">
         <v>43024</v>
@@ -21509,7 +21509,7 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B204" s="3">
         <v>43025</v>
@@ -21590,7 +21590,7 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B205" s="3">
         <v>43026</v>
@@ -21671,7 +21671,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B206" s="3">
         <v>43027</v>
@@ -21752,7 +21752,7 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B207" s="3">
         <v>43028</v>
@@ -21833,7 +21833,7 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B208" s="3">
         <v>43031</v>
@@ -21914,7 +21914,7 @@
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B209" s="3">
         <v>43032</v>
@@ -21995,7 +21995,7 @@
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B210" s="3">
         <v>43033</v>
@@ -22076,7 +22076,7 @@
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B211" s="3">
         <v>43034</v>
@@ -22157,7 +22157,7 @@
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B212" s="3">
         <v>43035</v>
@@ -22238,7 +22238,7 @@
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B213" s="3">
         <v>43038</v>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B214" s="3">
         <v>43039</v>
@@ -22400,7 +22400,7 @@
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B215" s="3">
         <v>43040</v>
@@ -22481,7 +22481,7 @@
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B216" s="3">
         <v>43041</v>
@@ -22562,7 +22562,7 @@
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B217" s="3">
         <v>43042</v>
@@ -22643,7 +22643,7 @@
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B218" s="3">
         <v>43045</v>
@@ -22724,7 +22724,7 @@
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B219" s="3">
         <v>43046</v>
@@ -22805,7 +22805,7 @@
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B220" s="3">
         <v>43047</v>
@@ -22886,7 +22886,7 @@
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B221" s="3">
         <v>43048</v>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B222" s="3">
         <v>43049</v>
@@ -23048,7 +23048,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B223" s="3">
         <v>43052</v>
@@ -23129,7 +23129,7 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B224" s="3">
         <v>43053</v>
@@ -23210,7 +23210,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B225" s="3">
         <v>43054</v>
@@ -23291,7 +23291,7 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3">
         <v>43055</v>
@@ -23372,7 +23372,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3">
         <v>43056</v>
@@ -23453,7 +23453,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3">
         <v>43059</v>
@@ -23534,7 +23534,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B229" s="3">
         <v>43060</v>
@@ -23615,7 +23615,7 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B230" s="3">
         <v>43061</v>
@@ -23696,7 +23696,7 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B231" s="3">
         <v>43063</v>
@@ -23777,7 +23777,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B232" s="3">
         <v>43066</v>
@@ -23858,7 +23858,7 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B233" s="3">
         <v>43067</v>
@@ -23939,7 +23939,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B234" s="3">
         <v>43068</v>
@@ -24020,7 +24020,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B235" s="3">
         <v>43069</v>
@@ -24101,7 +24101,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B236" s="3">
         <v>43070</v>
@@ -24182,7 +24182,7 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="3">
         <v>43073</v>
@@ -24263,7 +24263,7 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B238" s="3">
         <v>43074</v>
@@ -24344,7 +24344,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="3">
         <v>43075</v>
@@ -24425,7 +24425,7 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B240" s="3">
         <v>43076</v>
@@ -24506,7 +24506,7 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B241" s="3">
         <v>43077</v>
@@ -24587,7 +24587,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" s="3">
         <v>43080</v>
@@ -24668,7 +24668,7 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B243" s="3">
         <v>43081</v>
@@ -24749,7 +24749,7 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B244" s="3">
         <v>43082</v>
@@ -24830,7 +24830,7 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B245" s="3">
         <v>43083</v>
@@ -24911,7 +24911,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B246" s="3">
         <v>43084</v>
@@ -24992,7 +24992,7 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B247" s="3">
         <v>43087</v>
@@ -25073,7 +25073,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B248" s="3">
         <v>43088</v>
@@ -25154,7 +25154,7 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B249" s="3">
         <v>43089</v>
@@ -25235,7 +25235,7 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B250" s="3">
         <v>43090</v>
@@ -25316,7 +25316,7 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B251" s="3">
         <v>43091</v>
@@ -25397,7 +25397,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B252" s="3">
         <v>43095</v>
@@ -25478,7 +25478,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B253" s="3">
         <v>43096</v>
@@ -25559,7 +25559,7 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B254" s="3">
         <v>43097</v>
@@ -25640,7 +25640,7 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B255" s="3">
         <v>43098</v>
@@ -25721,7 +25721,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B256" s="3">
         <v>43102</v>
@@ -25802,7 +25802,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B257" s="3">
         <v>43103</v>
@@ -25883,7 +25883,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B258" s="3">
         <v>43104</v>
@@ -25964,7 +25964,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="3">
         <v>43105</v>
@@ -26045,7 +26045,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B260" s="3">
         <v>43108</v>
@@ -26126,7 +26126,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B261" s="3">
         <v>43109</v>
@@ -26207,7 +26207,7 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B262" s="3">
         <v>43110</v>
@@ -26288,7 +26288,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B263" s="3">
         <v>43111</v>
@@ -26369,7 +26369,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B264" s="3">
         <v>43112</v>
@@ -26450,7 +26450,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B265" s="3">
         <v>43116</v>
@@ -26531,7 +26531,7 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B266" s="3">
         <v>43117</v>
@@ -26612,7 +26612,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B267" s="3">
         <v>43118</v>
@@ -26693,7 +26693,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B268" s="3">
         <v>43119</v>
@@ -26774,7 +26774,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B269" s="3">
         <v>43122</v>
@@ -26855,7 +26855,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B270" s="3">
         <v>43123</v>
@@ -26936,7 +26936,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B271" s="3">
         <v>43124</v>
@@ -27017,7 +27017,7 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B272" s="3">
         <v>43125</v>
@@ -27098,7 +27098,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B273" s="3">
         <v>43126</v>
@@ -27179,7 +27179,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B274" s="3">
         <v>43129</v>
@@ -27260,7 +27260,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B275" s="3">
         <v>43130</v>
@@ -27341,7 +27341,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B276" s="3">
         <v>43131</v>
@@ -27422,7 +27422,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B277" s="3">
         <v>43132</v>
@@ -27503,7 +27503,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B278" s="3">
         <v>43133</v>
@@ -27584,7 +27584,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B279" s="3">
         <v>43136</v>
@@ -27665,7 +27665,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B280" s="3">
         <v>43137</v>
@@ -27746,7 +27746,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B281" s="3">
         <v>43138</v>
@@ -27827,7 +27827,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B282" s="3">
         <v>43139</v>
@@ -27908,7 +27908,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B283" s="3">
         <v>43140</v>
@@ -27989,7 +27989,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B284" s="3">
         <v>43143</v>
@@ -28070,7 +28070,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B285" s="3">
         <v>43144</v>
@@ -28151,7 +28151,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B286" s="3">
         <v>43145</v>
@@ -28232,7 +28232,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B287" s="3">
         <v>43146</v>
@@ -28313,7 +28313,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B288" s="3">
         <v>43147</v>
@@ -28394,7 +28394,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B289" s="3">
         <v>43151</v>
@@ -28475,7 +28475,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B290" s="3">
         <v>43152</v>
@@ -28556,7 +28556,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B291" s="3">
         <v>43153</v>
@@ -28637,7 +28637,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B292" s="3">
         <v>43154</v>
@@ -28718,7 +28718,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B293" s="3">
         <v>43157</v>
@@ -28799,7 +28799,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B294" s="3">
         <v>43158</v>
@@ -28880,7 +28880,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B295" s="3">
         <v>43159</v>
@@ -28961,7 +28961,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B296" s="3">
         <v>43160</v>
@@ -29042,7 +29042,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B297" s="3">
         <v>43161</v>
@@ -29123,7 +29123,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B298" s="3">
         <v>43164</v>
@@ -29204,7 +29204,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B299" s="3">
         <v>43165</v>
@@ -29285,7 +29285,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B300" s="3">
         <v>43166</v>
@@ -29366,7 +29366,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301" s="3">
         <v>43167</v>
@@ -29447,7 +29447,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302" s="3">
         <v>43168</v>
@@ -29528,7 +29528,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" s="3">
         <v>43171</v>
@@ -29609,7 +29609,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B304" s="3">
         <v>43172</v>
@@ -29690,7 +29690,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" s="3">
         <v>43173</v>
@@ -29771,7 +29771,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" s="3">
         <v>43174</v>
@@ -29852,7 +29852,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" s="3">
         <v>43175</v>
@@ -29933,7 +29933,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B308" s="3">
         <v>43178</v>
@@ -30014,7 +30014,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B309" s="3">
         <v>43179</v>
@@ -30095,7 +30095,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B310" s="3">
         <v>43180</v>
@@ -30176,7 +30176,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B311" s="3">
         <v>43181</v>
@@ -30257,7 +30257,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B312" s="3">
         <v>43182</v>
@@ -30338,7 +30338,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B313" s="3">
         <v>43185</v>
@@ -30419,7 +30419,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B314" s="3">
         <v>43186</v>
@@ -30500,7 +30500,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B315" s="3">
         <v>43187</v>
@@ -30581,7 +30581,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B316" s="3">
         <v>43188</v>
@@ -30662,7 +30662,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B317" s="3">
         <v>43192</v>
@@ -30743,7 +30743,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B318" s="3">
         <v>43193</v>
@@ -30824,7 +30824,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B319" s="3">
         <v>43194</v>
@@ -30905,7 +30905,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B320" s="3">
         <v>43195</v>
@@ -30986,7 +30986,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B321" s="3">
         <v>43196</v>
@@ -31067,7 +31067,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B322" s="3">
         <v>43199</v>
@@ -31148,7 +31148,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B323" s="3">
         <v>43200</v>
@@ -31229,7 +31229,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B324" s="3">
         <v>43201</v>
@@ -31310,7 +31310,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B325" s="3">
         <v>43202</v>
@@ -31391,7 +31391,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B326" s="3">
         <v>43203</v>
@@ -31472,7 +31472,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B327" s="3">
         <v>43206</v>
@@ -31553,7 +31553,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B328" s="3">
         <v>43207</v>
@@ -31634,7 +31634,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B329" s="3">
         <v>43208</v>
@@ -31715,7 +31715,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B330" s="3">
         <v>43209</v>
@@ -31796,7 +31796,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B331" s="3">
         <v>43210</v>
@@ -31877,7 +31877,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B332" s="3">
         <v>43213</v>
@@ -31958,7 +31958,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B333" s="3">
         <v>43214</v>
@@ -32039,7 +32039,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B334" s="3">
         <v>43215</v>
@@ -32120,7 +32120,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B335" s="3">
         <v>43216</v>
@@ -32201,7 +32201,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="3">
         <v>43217</v>
@@ -32282,7 +32282,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B337" s="3">
         <v>43220</v>
@@ -32363,7 +32363,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B338" s="3">
         <v>43221</v>
@@ -32444,7 +32444,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B339" s="3">
         <v>43222</v>
@@ -32525,7 +32525,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B340" s="3">
         <v>43223</v>
@@ -32606,7 +32606,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B341" s="3">
         <v>43224</v>
@@ -32687,7 +32687,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B342" s="3">
         <v>43227</v>
@@ -32768,7 +32768,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B343" s="3">
         <v>43228</v>
@@ -32849,7 +32849,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B344" s="3">
         <v>43229</v>
@@ -32930,7 +32930,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B345" s="3">
         <v>43230</v>
@@ -33011,7 +33011,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B346" s="3">
         <v>43231</v>
@@ -33092,7 +33092,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B347" s="3">
         <v>43234</v>
@@ -33173,7 +33173,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B348" s="3">
         <v>43235</v>
@@ -33254,7 +33254,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B349" s="3">
         <v>43236</v>
@@ -33335,7 +33335,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B350" s="3">
         <v>43237</v>
@@ -33416,7 +33416,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B351" s="3">
         <v>43238</v>
@@ -33497,7 +33497,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B352" s="3">
         <v>43241</v>
@@ -33578,7 +33578,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B353" s="3">
         <v>43242</v>
@@ -33659,7 +33659,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B354" s="3">
         <v>43243</v>
@@ -33740,7 +33740,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B355" s="3">
         <v>43244</v>
@@ -33821,7 +33821,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B356" s="3">
         <v>43245</v>
@@ -33902,7 +33902,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B357" s="3">
         <v>43249</v>
@@ -33983,7 +33983,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B358" s="3">
         <v>43250</v>
@@ -34064,7 +34064,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B359" s="3">
         <v>43251</v>
@@ -34145,7 +34145,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B360" s="3">
         <v>43252</v>
@@ -34226,7 +34226,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B361" s="3">
         <v>43255</v>
@@ -34307,7 +34307,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B362" s="3">
         <v>43256</v>
@@ -34388,7 +34388,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B363" s="3">
         <v>43257</v>
@@ -34469,7 +34469,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B364" s="3">
         <v>43258</v>
@@ -34550,7 +34550,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B365" s="3">
         <v>43259</v>
@@ -34631,7 +34631,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B366" s="3">
         <v>43262</v>
@@ -34712,7 +34712,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B367" s="3">
         <v>43263</v>
@@ -34793,7 +34793,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B368" s="3">
         <v>43264</v>
@@ -34874,7 +34874,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B369" s="3">
         <v>43265</v>
@@ -34955,7 +34955,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B370" s="3">
         <v>43266</v>
@@ -35036,7 +35036,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B371" s="3">
         <v>43269</v>
@@ -35117,7 +35117,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B372" s="3">
         <v>43270</v>
@@ -35198,7 +35198,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B373" s="3">
         <v>43271</v>
@@ -35279,7 +35279,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B374" s="3">
         <v>43272</v>
@@ -35360,7 +35360,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B375" s="3">
         <v>43273</v>
@@ -35441,7 +35441,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B376" s="3">
         <v>43276</v>
@@ -35522,7 +35522,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B377" s="3">
         <v>43277</v>
@@ -35603,7 +35603,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B378" s="3">
         <v>43278</v>
@@ -35684,7 +35684,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B379" s="3">
         <v>43279</v>
@@ -35765,7 +35765,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B380" s="3">
         <v>43280</v>
@@ -35846,7 +35846,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B381" s="3">
         <v>43283</v>
@@ -35927,7 +35927,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B382" s="3">
         <v>43284</v>
@@ -36008,7 +36008,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B383" s="3">
         <v>43286</v>
@@ -36089,7 +36089,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B384" s="3">
         <v>43287</v>
@@ -36170,7 +36170,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B385" s="3">
         <v>43290</v>
@@ -36251,7 +36251,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B386" s="3">
         <v>43291</v>
@@ -36332,7 +36332,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B387" s="3">
         <v>43292</v>
@@ -36413,7 +36413,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B388" s="3">
         <v>43293</v>
@@ -36494,7 +36494,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B389" s="3">
         <v>43294</v>
@@ -36575,7 +36575,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B390" s="3">
         <v>43297</v>
@@ -36656,7 +36656,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B391" s="3">
         <v>43298</v>
@@ -36737,7 +36737,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B392" s="3">
         <v>43299</v>
@@ -36818,7 +36818,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B393" s="3">
         <v>43300</v>
@@ -36899,7 +36899,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B394" s="3">
         <v>43301</v>
@@ -36980,7 +36980,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B395" s="3">
         <v>43304</v>
@@ -37061,7 +37061,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B396" s="3">
         <v>43305</v>
@@ -37142,7 +37142,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B397" s="3">
         <v>43306</v>
@@ -37223,7 +37223,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B398" s="3">
         <v>43307</v>
@@ -37304,7 +37304,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B399" s="3">
         <v>43308</v>
@@ -37385,7 +37385,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B400" s="3">
         <v>43311</v>
@@ -37466,7 +37466,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B401" s="3">
         <v>43312</v>
@@ -37547,7 +37547,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B402" s="3">
         <v>43313</v>
@@ -37628,7 +37628,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B403" s="3">
         <v>43314</v>
@@ -37709,7 +37709,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B404" s="3">
         <v>43315</v>
@@ -37790,7 +37790,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B405" s="3">
         <v>43318</v>
@@ -37871,7 +37871,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B406" s="3">
         <v>43319</v>
@@ -37952,7 +37952,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B407" s="3">
         <v>43320</v>
@@ -38033,7 +38033,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B408" s="3">
         <v>43321</v>
@@ -38114,7 +38114,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B409" s="3">
         <v>43322</v>
@@ -38195,7 +38195,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B410" s="3">
         <v>43325</v>
@@ -38276,7 +38276,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B411" s="3">
         <v>43326</v>
@@ -38357,7 +38357,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B412" s="3">
         <v>43327</v>
@@ -38438,7 +38438,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B413" s="3">
         <v>43328</v>
@@ -38519,7 +38519,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B414" s="3">
         <v>43329</v>
@@ -38600,7 +38600,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B415" s="3">
         <v>43332</v>
@@ -38681,7 +38681,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B416" s="3">
         <v>43333</v>
@@ -38762,7 +38762,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B417" s="3">
         <v>43334</v>
@@ -38843,7 +38843,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B418" s="3">
         <v>43335</v>
@@ -38924,7 +38924,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B419" s="3">
         <v>43336</v>
@@ -39005,7 +39005,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B420" s="3">
         <v>43339</v>
@@ -39086,7 +39086,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B421" s="3">
         <v>43340</v>
@@ -39167,7 +39167,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B422" s="3">
         <v>43341</v>
@@ -39248,7 +39248,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B423" s="3">
         <v>43342</v>
@@ -39329,7 +39329,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B424" s="3">
         <v>43343</v>
@@ -39410,7 +39410,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B425" s="3">
         <v>43347</v>
@@ -39491,7 +39491,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B426" s="3">
         <v>43348</v>
@@ -39572,7 +39572,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B427" s="3">
         <v>43349</v>
@@ -39653,7 +39653,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B428" s="3">
         <v>43350</v>
@@ -39734,7 +39734,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B429" s="3">
         <v>43353</v>
@@ -39815,7 +39815,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B430" s="3">
         <v>43354</v>
@@ -39896,7 +39896,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B431" s="3">
         <v>43355</v>
@@ -39977,7 +39977,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B432" s="3">
         <v>43356</v>
@@ -40058,7 +40058,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B433" s="3">
         <v>43357</v>
@@ -40139,7 +40139,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B434" s="3">
         <v>43360</v>
@@ -40220,7 +40220,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B435" s="3">
         <v>43361</v>
@@ -40301,7 +40301,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B436" s="3">
         <v>43362</v>
@@ -40382,7 +40382,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B437" s="3">
         <v>43363</v>
@@ -40463,7 +40463,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B438" s="3">
         <v>43364</v>
@@ -40544,7 +40544,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B439" s="3">
         <v>43367</v>
@@ -40625,7 +40625,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B440" s="3">
         <v>43368</v>
@@ -40706,7 +40706,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B441" s="3">
         <v>43369</v>
@@ -40787,7 +40787,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B442" s="3">
         <v>43370</v>
@@ -40868,7 +40868,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B443" s="3">
         <v>43371</v>
@@ -40949,7 +40949,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B444" s="3">
         <v>43374</v>
@@ -41030,7 +41030,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B445" s="3">
         <v>43375</v>
@@ -41111,7 +41111,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B446" s="3">
         <v>43376</v>
@@ -41192,7 +41192,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B447" s="3">
         <v>43377</v>
@@ -41273,7 +41273,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B448" s="3">
         <v>43378</v>
@@ -41354,7 +41354,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B449" s="3">
         <v>43381</v>
@@ -41435,7 +41435,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B450" s="3">
         <v>43382</v>
@@ -41516,7 +41516,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B451" s="3">
         <v>43383</v>
@@ -41597,7 +41597,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B452" s="3">
         <v>43384</v>
@@ -41678,7 +41678,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B453" s="3">
         <v>43385</v>
@@ -41759,7 +41759,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B454" s="3">
         <v>43388</v>
@@ -41840,7 +41840,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B455" s="3">
         <v>43389</v>
@@ -41921,7 +41921,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B456" s="3">
         <v>43390</v>
@@ -42002,7 +42002,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B457" s="3">
         <v>43391</v>
@@ -42083,7 +42083,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B458" s="3">
         <v>43392</v>
@@ -42164,7 +42164,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B459" s="3">
         <v>43395</v>
@@ -42245,7 +42245,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B460" s="3">
         <v>43396</v>
@@ -42326,7 +42326,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B461" s="3">
         <v>43397</v>
@@ -42407,7 +42407,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B462" s="3">
         <v>43398</v>
@@ -42488,7 +42488,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B463" s="3">
         <v>43399</v>
@@ -42569,7 +42569,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B464" s="3">
         <v>43402</v>
@@ -42650,7 +42650,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B465" s="3">
         <v>43403</v>
@@ -42731,7 +42731,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B466" s="3">
         <v>43404</v>
@@ -42812,7 +42812,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B467" s="3">
         <v>43405</v>
@@ -42893,7 +42893,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B468" s="3">
         <v>43406</v>
@@ -42974,7 +42974,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B469" s="3">
         <v>43409</v>
@@ -43055,7 +43055,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B470" s="3">
         <v>43410</v>
@@ -43136,7 +43136,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B471" s="3">
         <v>43411</v>
@@ -43217,7 +43217,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B472" s="3">
         <v>43412</v>
@@ -43298,7 +43298,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B473" s="3">
         <v>43413</v>
@@ -43379,7 +43379,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B474" s="3">
         <v>43416</v>
@@ -43460,7 +43460,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B475" s="3">
         <v>43417</v>
@@ -43541,7 +43541,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B476" s="3">
         <v>43418</v>
@@ -43622,7 +43622,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B477" s="3">
         <v>43419</v>
@@ -43703,7 +43703,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B478" s="3">
         <v>43420</v>
@@ -43784,7 +43784,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B479" s="3">
         <v>43423</v>
@@ -43865,7 +43865,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B480" s="3">
         <v>43424</v>
@@ -43946,7 +43946,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B481" s="3">
         <v>43425</v>
@@ -44027,7 +44027,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B482" s="3">
         <v>43427</v>
@@ -44108,7 +44108,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B483" s="3">
         <v>43430</v>
@@ -44189,7 +44189,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B484" s="3">
         <v>43431</v>
@@ -44270,7 +44270,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B485" s="3">
         <v>43432</v>
@@ -44351,7 +44351,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B486" s="3">
         <v>43433</v>
@@ -44432,7 +44432,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B487" s="3">
         <v>43434</v>
@@ -44513,7 +44513,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B488" s="3">
         <v>43437</v>
@@ -44594,7 +44594,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B489" s="3">
         <v>43438</v>
@@ -44675,7 +44675,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B490" s="3">
         <v>43440</v>
@@ -44756,7 +44756,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B491" s="3">
         <v>43441</v>
@@ -44837,7 +44837,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B492" s="3">
         <v>43444</v>
@@ -44918,7 +44918,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B493" s="3">
         <v>43445</v>
@@ -44999,7 +44999,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B494" s="3">
         <v>43446</v>
@@ -45080,7 +45080,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B495" s="3">
         <v>43447</v>
@@ -45161,7 +45161,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B496" s="3">
         <v>43448</v>
@@ -45242,7 +45242,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B497" s="3">
         <v>43451</v>
@@ -45323,7 +45323,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B498" s="3">
         <v>43452</v>
@@ -45404,7 +45404,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B499" s="3">
         <v>43453</v>
@@ -45485,7 +45485,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B500" s="3">
         <v>43454</v>
@@ -45566,7 +45566,7 @@
     </row>
     <row r="501" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B501" s="3">
         <v>43455</v>
@@ -45647,7 +45647,7 @@
     </row>
     <row r="502" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B502" s="3">
         <v>43458</v>
@@ -45728,7 +45728,7 @@
     </row>
     <row r="503" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B503" s="3">
         <v>43460</v>
@@ -45809,7 +45809,7 @@
     </row>
     <row r="504" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A504" s="6">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B504" s="3">
         <v>43461</v>
@@ -45890,7 +45890,7 @@
     </row>
     <row r="505" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B505" s="3">
         <v>43462</v>
@@ -45971,7 +45971,7 @@
     </row>
     <row r="506" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A506" s="6">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B506" s="3">
         <v>43465</v>
